--- a/Module 2 Everyday Excel Part 2/Week 1 files/Most frequent text.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Most frequent text.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1827A4E-6720-4848-A470-364483479E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44762839-8EDB-4281-89C5-787DE9E2D761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23" yWindow="930" windowWidth="20521" windowHeight="11610" xr2:uid="{CC21F2C3-0FA0-411E-A9C2-5C64D0CC6FFA}"/>
+    <workbookView xWindow="3525" yWindow="5925" windowWidth="28500" windowHeight="14955" xr2:uid="{CC21F2C3-0FA0-411E-A9C2-5C64D0CC6FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="data">Sheet1!$B$2:$B$9</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -396,52 +391,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B66611-22AF-48D8-8784-2B54AAF5CB94}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f>MATCH(data,data,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <f>MATCH(data,data,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <f>MATCH(data,data,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <f>MATCH(data,data,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(data,MODE(MATCH(data,data,0)))</f>
+        <v>Biology</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <f>MATCH(data,data,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <f>MATCH(data,data,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <f>MATCH(data,data,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
+      </c>
+      <c r="C9">
+        <f>MATCH(data,data,0)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
